--- a/Room.xlsx
+++ b/Room.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayakrak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\עומר קידר\CI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D3A506-52B2-4D8F-BAB8-C1938BBA15BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A4D19-69FD-41B0-B9F0-CA055275418B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C2E462D4-DB91-4D22-AD5F-883ABE195EF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2E462D4-DB91-4D22-AD5F-883ABE195EF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B4" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -458,66 +458,26 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
